--- a/views/2.COGNEX TESTER SPARE Wk 51.xlsx
+++ b/views/2.COGNEX TESTER SPARE Wk 51.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/spare-parts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/spare-parts/views/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B543ADB-5D1B-AF47-964A-88137E27CD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311ADCB9-8ADE-5947-A75E-F7CCE1BE3E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="27120" windowHeight="17100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="1920" windowWidth="27120" windowHeight="17100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Spare" sheetId="4" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5657" uniqueCount="1189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5657" uniqueCount="1190">
   <si>
     <t>For Month of Oct 2014</t>
   </si>
@@ -3619,6 +3619,9 @@
   </si>
   <si>
     <t>ZEBRA</t>
+  </si>
+  <si>
+    <t>OTHERS</t>
   </si>
 </sst>
 </file>
@@ -40074,7 +40077,6 @@
             <x14:filter val="Rhino"/>
             <x14:filter val="RHINO / Vision Box Final"/>
             <x14:filter val="ROADRUNNER"/>
-            <x14:filter val="Roadrunner"/>
             <x14:filter val="Roadrunner /Bluetooth slide in"/>
             <x14:filter val="Rogue"/>
             <x14:filter val="Rogue Auto Focus"/>
@@ -40214,7 +40216,6 @@
             <filter val="Rhino"/>
             <filter val="RHINO / Vision Box Final"/>
             <filter val="ROADRUNNER"/>
-            <filter val="Roadrunner"/>
             <filter val="Roadrunner /Bluetooth slide in"/>
             <filter val="Rogue"/>
             <filter val="Rogue Auto Focus"/>
@@ -41369,7 +41370,7 @@
   <dimension ref="B2:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A9" sqref="A9:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41396,102 +41397,102 @@
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>106</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>1174</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>129</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>1176</v>
+        <v>984</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>984</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>1179</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>52</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>1182</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>1012</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
   </sheetData>

--- a/views/2.COGNEX TESTER SPARE Wk 51.xlsx
+++ b/views/2.COGNEX TESTER SPARE Wk 51.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/spare-parts/views/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311ADCB9-8ADE-5947-A75E-F7CCE1BE3E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1D9A94-9A2B-F043-88EB-E3FAC0211677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="1920" windowWidth="27120" windowHeight="17100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Spare" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="Spare Parts Master List" sheetId="12" r:id="rId2"/>
     <sheet name="DELUXE" sheetId="15" r:id="rId3"/>
-    <sheet name="New Part Request" sheetId="13" r:id="rId4"/>
-    <sheet name="Request for current spare " sheetId="14" r:id="rId5"/>
-    <sheet name="Summary" sheetId="5" r:id="rId6"/>
-    <sheet name="Urgent" sheetId="2" state="hidden" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="16" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId5"/>
+    <sheet name="New Part Request" sheetId="13" r:id="rId6"/>
+    <sheet name="Request for current spare " sheetId="14" r:id="rId7"/>
+    <sheet name="Summary" sheetId="5" r:id="rId8"/>
+    <sheet name="Urgent" sheetId="2" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'New Part Request'!$A$3:$R$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'New Part Request'!$A$3:$R$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'New Spare'!$A$1:$Z$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Request for current spare '!$A$5:$Q$232</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Request for current spare '!$A$5:$Q$232</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Spare Parts Master List'!$A$7:$XFB$492</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Spare Parts Master List'!$A$1:$P$114</definedName>
   </definedNames>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5657" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5797" uniqueCount="1260">
   <si>
     <t>For Month of Oct 2014</t>
   </si>
@@ -3622,6 +3624,216 @@
   </si>
   <si>
     <t>OTHERS</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>buying_price</t>
+  </si>
+  <si>
+    <t>selling_price</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Industrial vacuum cleaner</t>
+  </si>
+  <si>
+    <t>Float Plate for Palletizer</t>
+  </si>
+  <si>
+    <t>Air Compressor for painting</t>
+  </si>
+  <si>
+    <t>Adobe Cutter without Disk</t>
+  </si>
+  <si>
+    <t>Floor Cutter without Disk</t>
+  </si>
+  <si>
+    <t>Diamond Tip Disk</t>
+  </si>
+  <si>
+    <t>Air extractor</t>
+  </si>
+  <si>
+    <t>Mower</t>
+  </si>
+  <si>
+    <t>Electric Water Washer</t>
+  </si>
+  <si>
+    <t>Petrol pressure washer</t>
+  </si>
+  <si>
+    <t>Gasoline motor pump</t>
+  </si>
+  <si>
+    <t>Electric motor pump</t>
+  </si>
+  <si>
+    <t>Circular saw</t>
+  </si>
+  <si>
+    <t>Tungsten disc for circular saw</t>
+  </si>
+  <si>
+    <t>Electric welder</t>
+  </si>
+  <si>
+    <t>Welders face</t>
+  </si>
+  <si>
+    <t>Illumination tower</t>
+  </si>
+  <si>
+    <t>Floor Demolishing Hammer 110V</t>
+  </si>
+  <si>
+    <t>Muela or chisel hammer demolishing floor</t>
+  </si>
+  <si>
+    <t>Wall Wrecking Drill 110V</t>
+  </si>
+  <si>
+    <t>Muela or chisel hammer demolition wall</t>
+  </si>
+  <si>
+    <t>1/2 Hammer Drill Wood and Metal</t>
+  </si>
+  <si>
+    <t>Drill Percussion SDS Plus 110V</t>
+  </si>
+  <si>
+    <t>Drill Percussion SDS Max 110V (Mining)</t>
+  </si>
+  <si>
+    <t>Hanging scaffolding</t>
+  </si>
+  <si>
+    <t>Scaffolding hanging spacer</t>
+  </si>
+  <si>
+    <t>Modular scaffolding frame</t>
+  </si>
+  <si>
+    <t>Frame scaffolding scissors</t>
+  </si>
+  <si>
+    <t>Scaffolding scissors</t>
+  </si>
+  <si>
+    <t>Internal ladder for scaffolding</t>
+  </si>
+  <si>
+    <t>Security handrails</t>
+  </si>
+  <si>
+    <t>Rotating wheel for scaffolding</t>
+  </si>
+  <si>
+    <t>safety harness</t>
+  </si>
+  <si>
+    <t>Sling for harness</t>
+  </si>
+  <si>
+    <t>Metallic Platform</t>
+  </si>
+  <si>
+    <t>6 Kva Diesel Power Plant</t>
+  </si>
+  <si>
+    <t>10 Kva Diesel Power Plant</t>
+  </si>
+  <si>
+    <t>20 Kva Diesel Power Plant</t>
+  </si>
+  <si>
+    <t>30 Kva Diesel Power Plant</t>
+  </si>
+  <si>
+    <t>60 Kva Diesel Power Plant</t>
+  </si>
+  <si>
+    <t>75 Kva Diesel Power Plant</t>
+  </si>
+  <si>
+    <t>100 Kva Diesel Power Plant</t>
+  </si>
+  <si>
+    <t>120 Kva Diesel Power Plant</t>
+  </si>
+  <si>
+    <t>Aluminum Scissor Ladder</t>
+  </si>
+  <si>
+    <t>Electric extension</t>
+  </si>
+  <si>
+    <t>Tensioner cat</t>
+  </si>
+  <si>
+    <t>Lamina Covers Gap</t>
+  </si>
+  <si>
+    <t>Pipe wrench</t>
+  </si>
+  <si>
+    <t>Manila by Metro</t>
+  </si>
+  <si>
+    <t>2-channel pulley</t>
+  </si>
+  <si>
+    <t>Tensor</t>
+  </si>
+  <si>
+    <t>Weighing machine</t>
+  </si>
+  <si>
+    <t>Hydrostatic pump</t>
+  </si>
+  <si>
+    <t>Chapeta</t>
+  </si>
+  <si>
+    <t>Concrete sample cylinder</t>
+  </si>
+  <si>
+    <t>Lever Shear</t>
+  </si>
+  <si>
+    <t>Scissor Shear</t>
+  </si>
+  <si>
+    <t>Pneumatic tire car</t>
+  </si>
+  <si>
+    <t>Cone slump</t>
+  </si>
+  <si>
+    <t>Baldosin cutter</t>
   </si>
 </sst>
 </file>
@@ -3632,7 +3844,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3954,6 +4166,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -4168,7 +4394,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4950,6 +5176,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -14385,10 +14617,10 @@
   <dimension ref="A1:AA496"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -41369,7 +41601,7 @@
   </sheetPr>
   <dimension ref="B2:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD14"/>
     </sheetView>
   </sheetViews>
@@ -41501,6 +41733,2869 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459367FB-7D62-BB4F-ABEB-FA5A496462C5}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:J61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="A1:J61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="33.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>1500</v>
+      </c>
+      <c r="H2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>4500</v>
+      </c>
+      <c r="H3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>3000</v>
+      </c>
+      <c r="H4">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>4000</v>
+      </c>
+      <c r="H5">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>1540</v>
+      </c>
+      <c r="H6">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>1100</v>
+      </c>
+      <c r="H7">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>1540</v>
+      </c>
+      <c r="H8">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>1540</v>
+      </c>
+      <c r="H9">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>2600</v>
+      </c>
+      <c r="H10">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>2210</v>
+      </c>
+      <c r="H11">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>2860</v>
+      </c>
+      <c r="H12">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>2400</v>
+      </c>
+      <c r="H13">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>1100</v>
+      </c>
+      <c r="H14">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>4500</v>
+      </c>
+      <c r="H15">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>1980</v>
+      </c>
+      <c r="H16">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>4200</v>
+      </c>
+      <c r="H17">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>1800</v>
+      </c>
+      <c r="H18">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>5600</v>
+      </c>
+      <c r="H19">
+        <v>7840</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>9600</v>
+      </c>
+      <c r="H20">
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>3850</v>
+      </c>
+      <c r="H21">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>9600</v>
+      </c>
+      <c r="H22">
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>8000</v>
+      </c>
+      <c r="H23">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>3900</v>
+      </c>
+      <c r="H24">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>4600</v>
+      </c>
+      <c r="H25">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" s="263" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>1440</v>
+      </c>
+      <c r="H26">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" s="264" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>1600</v>
+      </c>
+      <c r="H27">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" s="264" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>900</v>
+      </c>
+      <c r="H28">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" s="264" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" s="264" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>162</v>
+      </c>
+      <c r="H30">
+        <v>226.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" s="264" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>270</v>
+      </c>
+      <c r="H31">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" s="264" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>75</v>
+      </c>
+      <c r="H32">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" s="264" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>168</v>
+      </c>
+      <c r="H33">
+        <v>235.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" s="264" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>1750</v>
+      </c>
+      <c r="H34">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" s="264" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>175</v>
+      </c>
+      <c r="H35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" s="264" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="G36">
+        <v>420</v>
+      </c>
+      <c r="H36">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <v>3500</v>
+      </c>
+      <c r="H37">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>3550</v>
+      </c>
+      <c r="H38">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>3600</v>
+      </c>
+      <c r="H39">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <v>3650</v>
+      </c>
+      <c r="H40">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41">
+        <v>3700</v>
+      </c>
+      <c r="H41">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="G42">
+        <v>3750</v>
+      </c>
+      <c r="H42">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>3800</v>
+      </c>
+      <c r="H43">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>3850</v>
+      </c>
+      <c r="H44">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+      <c r="G45">
+        <v>350</v>
+      </c>
+      <c r="H45">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+      <c r="G46">
+        <v>370</v>
+      </c>
+      <c r="H46">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="G47">
+        <v>380</v>
+      </c>
+      <c r="H47">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <v>380</v>
+      </c>
+      <c r="H48">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+      <c r="G49">
+        <v>480</v>
+      </c>
+      <c r="H49">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+      <c r="G50">
+        <v>600</v>
+      </c>
+      <c r="H50">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+      <c r="G51">
+        <v>900</v>
+      </c>
+      <c r="H51">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
+      </c>
+      <c r="G53">
+        <v>130</v>
+      </c>
+      <c r="H53">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F54">
+        <v>20</v>
+      </c>
+      <c r="G54">
+        <v>770</v>
+      </c>
+      <c r="H54">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="G55">
+        <v>660</v>
+      </c>
+      <c r="H55">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F56">
+        <v>20</v>
+      </c>
+      <c r="G56">
+        <v>400</v>
+      </c>
+      <c r="H56">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F57">
+        <v>20</v>
+      </c>
+      <c r="G57">
+        <v>450</v>
+      </c>
+      <c r="H57">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>580</v>
+      </c>
+      <c r="H58">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F59">
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>420</v>
+      </c>
+      <c r="H59">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F60">
+        <v>20</v>
+      </c>
+      <c r="G60">
+        <v>140</v>
+      </c>
+      <c r="H60">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="G61">
+        <v>930</v>
+      </c>
+      <c r="H61">
+        <v>1302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A848D03-C064-AC4A-BC0B-87B55CCC4CED}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
+  <dimension ref="A1:J61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>1500</v>
+      </c>
+      <c r="H2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>4500</v>
+      </c>
+      <c r="H3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>3000</v>
+      </c>
+      <c r="H4">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>4000</v>
+      </c>
+      <c r="H5">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>1540</v>
+      </c>
+      <c r="H6">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>1100</v>
+      </c>
+      <c r="H7">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>1540</v>
+      </c>
+      <c r="H8">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>1540</v>
+      </c>
+      <c r="H9">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>2600</v>
+      </c>
+      <c r="H10">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>2210</v>
+      </c>
+      <c r="H11">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F12">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>2860</v>
+      </c>
+      <c r="H12">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>2400</v>
+      </c>
+      <c r="H13">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>1100</v>
+      </c>
+      <c r="H14">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>4500</v>
+      </c>
+      <c r="H15">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>1980</v>
+      </c>
+      <c r="H16">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>4200</v>
+      </c>
+      <c r="H17">
+        <v>5880</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>1800</v>
+      </c>
+      <c r="H18">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>5600</v>
+      </c>
+      <c r="H19">
+        <v>7840</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>9600</v>
+      </c>
+      <c r="H20">
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>3850</v>
+      </c>
+      <c r="H21">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>9600</v>
+      </c>
+      <c r="H22">
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>8000</v>
+      </c>
+      <c r="H23">
+        <v>11200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>3900</v>
+      </c>
+      <c r="H24">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>4600</v>
+      </c>
+      <c r="H25">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" s="263" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>1440</v>
+      </c>
+      <c r="H26">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" s="264" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>1600</v>
+      </c>
+      <c r="H27">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" s="264" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>900</v>
+      </c>
+      <c r="H28">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" s="264" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" s="264" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>162</v>
+      </c>
+      <c r="H30">
+        <v>226.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" s="264" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>270</v>
+      </c>
+      <c r="H31">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" s="264" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>75</v>
+      </c>
+      <c r="H32">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" s="264" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>168</v>
+      </c>
+      <c r="H33">
+        <v>235.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" s="264" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>1750</v>
+      </c>
+      <c r="H34">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" s="264" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>175</v>
+      </c>
+      <c r="H35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" s="264" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="G36">
+        <v>420</v>
+      </c>
+      <c r="H36">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <v>3500</v>
+      </c>
+      <c r="H37">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>3550</v>
+      </c>
+      <c r="H38">
+        <v>4970</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>3600</v>
+      </c>
+      <c r="H39">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1238</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <v>3650</v>
+      </c>
+      <c r="H40">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41">
+        <v>3700</v>
+      </c>
+      <c r="H41">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="G42">
+        <v>3750</v>
+      </c>
+      <c r="H42">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>3800</v>
+      </c>
+      <c r="H43">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>3850</v>
+      </c>
+      <c r="H44">
+        <v>5390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+      <c r="G45">
+        <v>350</v>
+      </c>
+      <c r="H45">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+      <c r="G46">
+        <v>370</v>
+      </c>
+      <c r="H46">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="G47">
+        <v>380</v>
+      </c>
+      <c r="H47">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <v>380</v>
+      </c>
+      <c r="H48">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+      <c r="G49">
+        <v>480</v>
+      </c>
+      <c r="H49">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+      <c r="G50">
+        <v>600</v>
+      </c>
+      <c r="H50">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+      <c r="G51">
+        <v>900</v>
+      </c>
+      <c r="H51">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+      <c r="G52">
+        <v>100</v>
+      </c>
+      <c r="H52">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
+      </c>
+      <c r="G53">
+        <v>130</v>
+      </c>
+      <c r="H53">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F54">
+        <v>20</v>
+      </c>
+      <c r="G54">
+        <v>770</v>
+      </c>
+      <c r="H54">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+      <c r="G55">
+        <v>660</v>
+      </c>
+      <c r="H55">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F56">
+        <v>20</v>
+      </c>
+      <c r="G56">
+        <v>400</v>
+      </c>
+      <c r="H56">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F57">
+        <v>20</v>
+      </c>
+      <c r="G57">
+        <v>450</v>
+      </c>
+      <c r="H57">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F58">
+        <v>20</v>
+      </c>
+      <c r="G58">
+        <v>580</v>
+      </c>
+      <c r="H58">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F59">
+        <v>20</v>
+      </c>
+      <c r="G59">
+        <v>420</v>
+      </c>
+      <c r="H59">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F60">
+        <v>20</v>
+      </c>
+      <c r="G60">
+        <v>140</v>
+      </c>
+      <c r="H60">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F61">
+        <v>20</v>
+      </c>
+      <c r="G61">
+        <v>930</v>
+      </c>
+      <c r="H61">
+        <v>1302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -41509,7 +44604,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E37" sqref="E37"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -41975,7 +45070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr filterMode="1">
     <tabColor theme="1"/>
@@ -50752,7 +53847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet3">
     <tabColor theme="1"/>
@@ -50760,7 +53855,7 @@
   <dimension ref="A3:M67"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="12" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
@@ -51962,7 +55057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:T36"/>

--- a/views/2.COGNEX TESTER SPARE Wk 51.xlsx
+++ b/views/2.COGNEX TESTER SPARE Wk 51.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/spare-parts/views/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1D9A94-9A2B-F043-88EB-E3FAC0211677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CC5A353-2186-A740-858A-FE56CD2FB6BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New Spare" sheetId="4" state="hidden" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5797" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5787" uniqueCount="1260">
   <si>
     <t>For Month of Oct 2014</t>
   </si>
@@ -41737,10 +41737,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="A1:J61"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -41748,188 +41748,179 @@
     <col min="4" max="4" width="33.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1190</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1192</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1195</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1196</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1197</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1200</v>
+      </c>
+      <c r="F1">
+        <v>20</v>
+      </c>
+      <c r="G1">
+        <v>1500</v>
+      </c>
+      <c r="H1">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="F2">
         <v>20</v>
       </c>
       <c r="G2">
-        <v>1500</v>
+        <v>4500</v>
       </c>
       <c r="H2">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
       <c r="G3">
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="H3">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="F4">
         <v>20</v>
       </c>
       <c r="G4">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="H4">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="F5">
         <v>20</v>
       </c>
       <c r="G5">
-        <v>4000</v>
+        <v>1540</v>
       </c>
       <c r="H5">
-        <v>5600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6">
+        <v>1100</v>
+      </c>
+      <c r="H6">
         <v>1540</v>
       </c>
-      <c r="H6">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="F7">
         <v>20</v>
       </c>
       <c r="G7">
-        <v>1100</v>
+        <v>1540</v>
       </c>
       <c r="H7">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="F8">
         <v>20</v>
@@ -41941,892 +41932,892 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="F9">
         <v>20</v>
       </c>
       <c r="G9">
-        <v>1540</v>
+        <v>2600</v>
       </c>
       <c r="H9">
-        <v>2156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="F10">
         <v>20</v>
       </c>
       <c r="G10">
-        <v>2600</v>
+        <v>2210</v>
       </c>
       <c r="H10">
-        <v>3640</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="F11">
         <v>20</v>
       </c>
       <c r="G11">
-        <v>2210</v>
+        <v>2860</v>
       </c>
       <c r="H11">
-        <v>3094</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F12">
         <v>20</v>
       </c>
       <c r="G12">
-        <v>2860</v>
+        <v>2400</v>
       </c>
       <c r="H12">
-        <v>4004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F13">
         <v>20</v>
       </c>
       <c r="G13">
-        <v>2400</v>
+        <v>1100</v>
       </c>
       <c r="H13">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F14">
         <v>20</v>
       </c>
       <c r="G14">
-        <v>1100</v>
+        <v>4500</v>
       </c>
       <c r="H14">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F15">
         <v>20</v>
       </c>
       <c r="G15">
-        <v>4500</v>
+        <v>1980</v>
       </c>
       <c r="H15">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="F16">
         <v>20</v>
       </c>
       <c r="G16">
-        <v>1980</v>
+        <v>4200</v>
       </c>
       <c r="H16">
-        <v>2772</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F17">
         <v>20</v>
       </c>
       <c r="G17">
-        <v>4200</v>
+        <v>1800</v>
       </c>
       <c r="H17">
-        <v>5880</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="F18">
         <v>20</v>
       </c>
       <c r="G18">
-        <v>1800</v>
+        <v>5600</v>
       </c>
       <c r="H18">
-        <v>2520</v>
+        <v>7840</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="F19">
         <v>20</v>
       </c>
       <c r="G19">
-        <v>5600</v>
+        <v>9600</v>
       </c>
       <c r="H19">
-        <v>7840</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="F20">
         <v>20</v>
       </c>
       <c r="G20">
-        <v>9600</v>
+        <v>3850</v>
       </c>
       <c r="H20">
-        <v>13440</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="F21">
         <v>20</v>
       </c>
       <c r="G21">
-        <v>3850</v>
+        <v>9600</v>
       </c>
       <c r="H21">
-        <v>5390</v>
+        <v>13440</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="F22">
         <v>20</v>
       </c>
       <c r="G22">
-        <v>9600</v>
+        <v>8000</v>
       </c>
       <c r="H22">
-        <v>13440</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="F23">
         <v>20</v>
       </c>
       <c r="G23">
-        <v>8000</v>
+        <v>3900</v>
       </c>
       <c r="H23">
-        <v>11200</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="F24">
         <v>20</v>
       </c>
       <c r="G24">
-        <v>3900</v>
+        <v>4600</v>
       </c>
       <c r="H24">
-        <v>5460</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1223</v>
+        <v>25</v>
+      </c>
+      <c r="D25" s="263" t="s">
+        <v>1224</v>
       </c>
       <c r="F25">
         <v>20</v>
       </c>
       <c r="G25">
-        <v>4600</v>
+        <v>1440</v>
       </c>
       <c r="H25">
-        <v>6440</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>25</v>
-      </c>
-      <c r="D26" s="263" t="s">
-        <v>1224</v>
+        <v>26</v>
+      </c>
+      <c r="D26" s="264" t="s">
+        <v>1225</v>
       </c>
       <c r="F26">
         <v>20</v>
       </c>
       <c r="G26">
-        <v>1440</v>
+        <v>1600</v>
       </c>
       <c r="H26">
-        <v>2016</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" s="264" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="F27">
         <v>20</v>
       </c>
       <c r="G27">
-        <v>1600</v>
+        <v>900</v>
       </c>
       <c r="H27">
-        <v>2240</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D28" s="264" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="F28">
         <v>20</v>
       </c>
       <c r="G28">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="H28">
-        <v>1260</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D29" s="264" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="F29">
         <v>20</v>
       </c>
       <c r="G29">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="H29">
-        <v>140</v>
+        <v>226.8</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="264" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F30">
         <v>20</v>
       </c>
       <c r="G30">
-        <v>162</v>
+        <v>270</v>
       </c>
       <c r="H30">
-        <v>226.8</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" s="264" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="F31">
         <v>20</v>
       </c>
       <c r="G31">
-        <v>270</v>
+        <v>75</v>
       </c>
       <c r="H31">
-        <v>378</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D32" s="264" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="F32">
         <v>20</v>
       </c>
       <c r="G32">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="H32">
-        <v>105</v>
+        <v>235.2</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" s="264" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="F33">
         <v>20</v>
       </c>
       <c r="G33">
-        <v>168</v>
+        <v>1750</v>
       </c>
       <c r="H33">
-        <v>235.2</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" s="264" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="F34">
         <v>20</v>
       </c>
       <c r="G34">
-        <v>1750</v>
+        <v>175</v>
       </c>
       <c r="H34">
-        <v>2450</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" s="264" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="F35">
         <v>20</v>
       </c>
       <c r="G35">
-        <v>175</v>
+        <v>420</v>
       </c>
       <c r="H35">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>35</v>
-      </c>
-      <c r="D36" s="264" t="s">
-        <v>1234</v>
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1235</v>
       </c>
       <c r="F36">
         <v>20</v>
       </c>
       <c r="G36">
-        <v>420</v>
+        <v>3500</v>
       </c>
       <c r="H36">
-        <v>588</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="F37">
         <v>20</v>
       </c>
       <c r="G37">
-        <v>3500</v>
+        <v>3550</v>
       </c>
       <c r="H37">
-        <v>4900</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>4</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="F38">
         <v>20</v>
       </c>
       <c r="G38">
-        <v>3550</v>
+        <v>3600</v>
       </c>
       <c r="H38">
-        <v>4970</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="F39">
         <v>20</v>
       </c>
       <c r="G39">
-        <v>3600</v>
+        <v>3650</v>
       </c>
       <c r="H39">
-        <v>5040</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>4</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F40">
         <v>20</v>
       </c>
       <c r="G40">
-        <v>3650</v>
+        <v>3700</v>
       </c>
       <c r="H40">
-        <v>5110</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="F41">
         <v>20</v>
       </c>
       <c r="G41">
-        <v>3700</v>
+        <v>3750</v>
       </c>
       <c r="H41">
-        <v>5180</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="F42">
         <v>20</v>
       </c>
       <c r="G42">
-        <v>3750</v>
+        <v>3800</v>
       </c>
       <c r="H42">
-        <v>5250</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="F43">
         <v>20</v>
       </c>
       <c r="G43">
-        <v>3800</v>
+        <v>3850</v>
       </c>
       <c r="H43">
-        <v>5320</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="F44">
         <v>20</v>
       </c>
       <c r="G44">
-        <v>3850</v>
+        <v>350</v>
       </c>
       <c r="H44">
-        <v>5390</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="F45">
         <v>20</v>
       </c>
       <c r="G45">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="H45">
-        <v>490</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="F46">
         <v>20</v>
       </c>
       <c r="G46">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="H46">
-        <v>518</v>
+        <v>532</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F47">
         <v>20</v>
@@ -42840,323 +42831,300 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>5</v>
       </c>
       <c r="C48">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="F48">
         <v>20</v>
       </c>
       <c r="G48">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="H48">
-        <v>532</v>
+        <v>672</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>5</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="F49">
         <v>20</v>
       </c>
       <c r="G49">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="H49">
-        <v>672</v>
+        <v>840</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>5</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="F50">
         <v>20</v>
       </c>
       <c r="G50">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="H50">
-        <v>840</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>5</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="F51">
         <v>20</v>
       </c>
       <c r="G51">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="H51">
-        <v>1260</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>5</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D52" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="F52">
         <v>20</v>
       </c>
       <c r="G52">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H52">
-        <v>140</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>5</v>
       </c>
       <c r="C53">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D53" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="F53">
         <v>20</v>
       </c>
       <c r="G53">
-        <v>130</v>
+        <v>770</v>
       </c>
       <c r="H53">
-        <v>182</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>5</v>
       </c>
       <c r="C54">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D54" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="F54">
         <v>20</v>
       </c>
       <c r="G54">
-        <v>770</v>
+        <v>660</v>
       </c>
       <c r="H54">
-        <v>1078</v>
+        <v>924</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>5</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="F55">
         <v>20</v>
       </c>
       <c r="G55">
-        <v>660</v>
+        <v>400</v>
       </c>
       <c r="H55">
-        <v>924</v>
+        <v>560</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>5</v>
       </c>
       <c r="C56">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D56" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="F56">
         <v>20</v>
       </c>
       <c r="G56">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="H56">
-        <v>560</v>
+        <v>630</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>5</v>
       </c>
       <c r="C57">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D57" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="F57">
         <v>20</v>
       </c>
       <c r="G57">
-        <v>450</v>
+        <v>580</v>
       </c>
       <c r="H57">
-        <v>630</v>
+        <v>812</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>5</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="F58">
         <v>20</v>
       </c>
       <c r="G58">
-        <v>580</v>
+        <v>420</v>
       </c>
       <c r="H58">
-        <v>812</v>
+        <v>588</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>5</v>
       </c>
       <c r="C59">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D59" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="F59">
         <v>20</v>
       </c>
       <c r="G59">
-        <v>420</v>
+        <v>140</v>
       </c>
       <c r="H59">
-        <v>588</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>5</v>
       </c>
       <c r="C60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D60" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="F60">
         <v>20</v>
       </c>
       <c r="G60">
-        <v>140</v>
+        <v>930</v>
       </c>
       <c r="H60">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>5</v>
-      </c>
-      <c r="C61">
-        <v>60</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F61">
-        <v>20</v>
-      </c>
-      <c r="G61">
-        <v>930</v>
-      </c>
-      <c r="H61">
         <v>1302</v>
       </c>
     </row>
@@ -43172,7 +43140,7 @@
   </sheetPr>
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J61"/>
     </sheetView>
   </sheetViews>
